--- a/Assets/Data/DreamOfTheKing.xlsx
+++ b/Assets/Data/DreamOfTheKing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\unity\Rouge_Card\DreamOfTheKingDom-main\DreamOfTheKingDom-main\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30714\Desktop\git\unity\Rougle_Card\DreamOfThekingDom_2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3091779-DD79-46EA-9F87-61F68D15CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63057CB4-5434-4398-AAEB-C4C416292751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1815" windowWidth="16200" windowHeight="9427" activeTab="2" xr2:uid="{F2DF3906-B746-46D3-AD8A-C6D2E307833D}"/>
+    <workbookView xWindow="5160" yWindow="4365" windowWidth="21855" windowHeight="11835" activeTab="2" xr2:uid="{F2DF3906-B746-46D3-AD8A-C6D2E307833D}"/>
   </bookViews>
   <sheets>
     <sheet name="CardSO" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,6 +312,90 @@
   <si>
     <t>Images/Frost_Spell_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Chest_01_gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加 &lt;color="white"&gt;1&lt;/color&gt; 点厚皮，每次收到的攻击伤害减1</t>
+  </si>
+  <si>
+    <t>ThickSkinStatusEffect</t>
+  </si>
+  <si>
+    <t>对目标造成 &lt;color="white"&gt;1&lt;/color&gt; 点伤害&lt;color="white"&gt;10&lt;/color&gt;次</t>
+  </si>
+  <si>
+    <t>FallingMeteorEffect</t>
+  </si>
+  <si>
+    <t>Images/Arrow_01_gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坠火流星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/buff_defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加护盾 &lt;color="white"&gt;10&lt;/color&gt; 点</t>
+  </si>
+  <si>
+    <t>ShieldStatusEffect</t>
+  </si>
+  <si>
+    <t>激励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Gold_Parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃掷&lt;color="white"&gt;1&lt;/color&gt;张卡单个对敌人造成10点伤害（无视强化等）</t>
+  </si>
+  <si>
+    <t>InspireEffect</t>
+  </si>
+  <si>
+    <t>猩红印记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星月之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对任意目标施加一点猩红印记，每当打出一张攻击卡时，对带有猩红印记的生物造成2x点伤害</t>
+  </si>
+  <si>
+    <t>Images/Sword_02_gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrimsonMarkStatusEffect</t>
+  </si>
+  <si>
+    <t>抽卡池每有一个攻击类型的（Attack）牌就造成value倍伤害</t>
+  </si>
+  <si>
+    <t>Images/Fantasy_Spell_06_no_BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarMoonlightEffect</t>
   </si>
 </sst>
 </file>
@@ -684,15 +768,15 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.59765625" customWidth="1"/>
-    <col min="7" max="7" width="26.73046875" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +801,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -742,7 +826,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -767,7 +851,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -792,7 +876,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -817,7 +901,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -842,7 +926,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -867,7 +951,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -878,7 +962,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -889,7 +973,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -900,7 +984,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -911,7 +995,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -922,7 +1006,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -933,7 +1017,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -944,7 +1028,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -955,7 +1039,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -966,7 +1050,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -977,7 +1061,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -988,7 +1072,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -999,7 +1083,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1010,7 +1094,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1021,7 +1105,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1032,7 +1116,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1043,7 +1127,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1054,7 +1138,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1079,9 +1163,9 @@
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1097,19 +1181,20 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.59765625" customWidth="1"/>
-    <col min="7" max="7" width="26.73046875" customWidth="1"/>
-    <col min="8" max="8" width="23.46484375" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="84.25" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1221,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -1161,7 +1246,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -1186,7 +1271,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -1211,7 +1296,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -1236,7 +1321,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -1261,7 +1346,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -1286,7 +1371,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -1310,7 +1395,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -1334,7 +1419,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
@@ -1359,73 +1444,157 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>10015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1436,7 +1605,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1447,7 +1616,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1458,7 +1627,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1469,7 +1638,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1480,7 +1649,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1491,7 +1660,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1502,7 +1671,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1513,7 +1682,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1538,12 +1707,12 @@
       <selection activeCell="I13" sqref="F6:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.9296875" customWidth="1"/>
-    <col min="5" max="5" width="18.1328125" customWidth="1"/>
-    <col min="6" max="6" width="30.46484375" customWidth="1"/>
-    <col min="7" max="7" width="20.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1559,15 +1728,15 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="7" width="21.1328125" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -1613,7 +1782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -1638,13 +1807,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="8" max="8" width="33.796875" customWidth="1"/>
+    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="8" max="8" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1658,7 +1827,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1672,7 +1841,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1686,7 +1855,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1700,7 +1869,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1714,7 +1883,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1728,7 +1897,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1742,7 +1911,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1756,7 +1925,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1764,7 +1933,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1772,7 +1941,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1780,7 +1949,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1788,7 +1957,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1796,7 +1965,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>

--- a/Assets/Data/DreamOfTheKing.xlsx
+++ b/Assets/Data/DreamOfTheKing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30714\Desktop\git\unity\Rougle_Card\DreamOfThekingDom_2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63057CB4-5434-4398-AAEB-C4C416292751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF20A4-3349-4F42-A9E2-E00E8F5D86FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="4365" windowWidth="21855" windowHeight="11835" activeTab="2" xr2:uid="{F2DF3906-B746-46D3-AD8A-C6D2E307833D}"/>
+    <workbookView xWindow="3045" yWindow="4365" windowWidth="21855" windowHeight="11835" activeTab="2" xr2:uid="{F2DF3906-B746-46D3-AD8A-C6D2E307833D}"/>
   </bookViews>
   <sheets>
     <sheet name="CardSO" sheetId="1" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
